--- a/linux服务器/Docker基本组成.xlsx
+++ b/linux服务器/Docker基本组成.xlsx
@@ -30,10 +30,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,6 +68,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -60,8 +105,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,29 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -107,22 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,36 +173,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,7 +183,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,19 +309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,13 +327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,133 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,17 +377,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,50 +406,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +433,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -482,10 +482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,133 +494,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -817,7 +817,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -825,7 +825,7 @@
             <a:t>类似于</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -833,7 +833,7 @@
             <a:t>Linux</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -841,7 +841,7 @@
             <a:t>的引导文件系统，</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -849,14 +849,14 @@
             <a:t>Docker</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>用户永远不会与引导文件系统去交互，当容器启动后，引导文件系统会被卸载。也就是说引导文件系统只在容器启动的过程中发生作用</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2479,15 +2479,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>等</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>）。传统的操作系统中，</a:t>
+            <a:t>等）。传统的操作系统中，</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -5134,8 +5126,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
